--- a/assets/data/gallery.xlsx
+++ b/assets/data/gallery.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Show</t>
   </si>
@@ -58,13 +58,23 @@
   </si>
   <si>
     <t>Prostavive is a natural, high-strength prostate support formula designed to promote urinary tract health, balance male hormones, and enhance overall vitality.</t>
+  </si>
+  <si>
+    <t>Ignitra.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet Ignitra — the plant-powered way to reignite your metabolism and restore clean, lasting energy 
+If your metabolism has slowed down due to stress, aging, or a busy lifestyle… Ignitra helps bring it back to life the natural way. </t>
+  </si>
+  <si>
+    <t>https://17046gpgpkrt4p0cvfji5y3man.hop.clickbank.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +103,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -123,6 +141,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,23 +503,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
